--- a/ticket_updates.xlsx
+++ b/ticket_updates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Ticket No</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>ede51d52</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
   <si>
     <t xml:space="preserve">Arjav </t>
@@ -652,24 +655,24 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -677,32 +680,32 @@
         <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -710,12 +713,12 @@
         <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -729,13 +732,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -743,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ticket_updates.xlsx
+++ b/ticket_updates.xlsx
@@ -169,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
